--- a/STK Push NEW.xlsx
+++ b/STK Push NEW.xlsx
@@ -381,10 +381,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D391"/>
+  <dimension ref="A1:D580"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A280" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C5" activeCellId="1" pane="topLeft" sqref="B:B C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelRow="0" zeroHeight="0"/>
@@ -407,7 +407,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>TPS</t>
+          <t>STKAvgTPS</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
@@ -5624,7 +5624,7 @@
         </is>
       </c>
     </row>
-    <row r="311">
+    <row customHeight="1" ht="13.8" r="311" s="3">
       <c r="A311" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5641,7 +5641,7 @@
         </is>
       </c>
     </row>
-    <row r="312">
+    <row customHeight="1" ht="13.8" r="312" s="3">
       <c r="A312" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5658,7 +5658,7 @@
         </is>
       </c>
     </row>
-    <row r="313">
+    <row customHeight="1" ht="13.8" r="313" s="3">
       <c r="A313" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5675,7 +5675,7 @@
         </is>
       </c>
     </row>
-    <row r="314">
+    <row customHeight="1" ht="13.8" r="314" s="3">
       <c r="A314" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5692,7 +5692,7 @@
         </is>
       </c>
     </row>
-    <row r="315">
+    <row customHeight="1" ht="13.8" r="315" s="3">
       <c r="A315" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5709,7 +5709,7 @@
         </is>
       </c>
     </row>
-    <row r="316">
+    <row customHeight="1" ht="13.8" r="316" s="3">
       <c r="A316" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
     </row>
-    <row r="317">
+    <row customHeight="1" ht="13.8" r="317" s="3">
       <c r="A317" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5743,7 +5743,7 @@
         </is>
       </c>
     </row>
-    <row r="318">
+    <row customHeight="1" ht="13.8" r="318" s="3">
       <c r="A318" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5760,7 +5760,7 @@
         </is>
       </c>
     </row>
-    <row r="319">
+    <row customHeight="1" ht="13.8" r="319" s="3">
       <c r="A319" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5777,7 +5777,7 @@
         </is>
       </c>
     </row>
-    <row r="320">
+    <row customHeight="1" ht="13.8" r="320" s="3">
       <c r="A320" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5794,7 +5794,7 @@
         </is>
       </c>
     </row>
-    <row r="321">
+    <row customHeight="1" ht="13.8" r="321" s="3">
       <c r="A321" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5811,7 +5811,7 @@
         </is>
       </c>
     </row>
-    <row r="322">
+    <row customHeight="1" ht="13.8" r="322" s="3">
       <c r="A322" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5828,7 +5828,7 @@
         </is>
       </c>
     </row>
-    <row r="323">
+    <row customHeight="1" ht="13.8" r="323" s="3">
       <c r="A323" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5845,7 +5845,7 @@
         </is>
       </c>
     </row>
-    <row r="324">
+    <row customHeight="1" ht="13.8" r="324" s="3">
       <c r="A324" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5862,7 +5862,7 @@
         </is>
       </c>
     </row>
-    <row r="325">
+    <row customHeight="1" ht="13.8" r="325" s="3">
       <c r="A325" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
     </row>
-    <row r="326">
+    <row customHeight="1" ht="13.8" r="326" s="3">
       <c r="A326" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
     </row>
-    <row r="327">
+    <row customHeight="1" ht="13.8" r="327" s="3">
       <c r="A327" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5913,7 +5913,7 @@
         </is>
       </c>
     </row>
-    <row r="328">
+    <row customHeight="1" ht="13.8" r="328" s="3">
       <c r="A328" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5930,7 +5930,7 @@
         </is>
       </c>
     </row>
-    <row r="329">
+    <row customHeight="1" ht="13.8" r="329" s="3">
       <c r="A329" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5947,7 +5947,7 @@
         </is>
       </c>
     </row>
-    <row r="330">
+    <row customHeight="1" ht="13.8" r="330" s="3">
       <c r="A330" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5964,7 +5964,7 @@
         </is>
       </c>
     </row>
-    <row r="331">
+    <row customHeight="1" ht="13.8" r="331" s="3">
       <c r="A331" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5981,7 +5981,7 @@
         </is>
       </c>
     </row>
-    <row r="332">
+    <row customHeight="1" ht="13.8" r="332" s="3">
       <c r="A332" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -5998,7 +5998,7 @@
         </is>
       </c>
     </row>
-    <row r="333">
+    <row customHeight="1" ht="13.8" r="333" s="3">
       <c r="A333" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
     </row>
-    <row r="334">
+    <row customHeight="1" ht="13.8" r="334" s="3">
       <c r="A334" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
     </row>
-    <row r="335">
+    <row customHeight="1" ht="13.8" r="335" s="3">
       <c r="A335" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6049,7 +6049,7 @@
         </is>
       </c>
     </row>
-    <row r="336">
+    <row customHeight="1" ht="13.8" r="336" s="3">
       <c r="A336" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
     </row>
-    <row r="337">
+    <row customHeight="1" ht="13.8" r="337" s="3">
       <c r="A337" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
     </row>
-    <row r="338">
+    <row customHeight="1" ht="13.8" r="338" s="3">
       <c r="A338" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6100,7 +6100,7 @@
         </is>
       </c>
     </row>
-    <row r="339">
+    <row customHeight="1" ht="13.8" r="339" s="3">
       <c r="A339" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6117,7 +6117,7 @@
         </is>
       </c>
     </row>
-    <row r="340">
+    <row customHeight="1" ht="13.8" r="340" s="3">
       <c r="A340" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6134,7 +6134,7 @@
         </is>
       </c>
     </row>
-    <row r="341">
+    <row customHeight="1" ht="13.8" r="341" s="3">
       <c r="A341" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
     </row>
-    <row r="342">
+    <row customHeight="1" ht="13.8" r="342" s="3">
       <c r="A342" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6168,7 +6168,7 @@
         </is>
       </c>
     </row>
-    <row r="343">
+    <row customHeight="1" ht="13.8" r="343" s="3">
       <c r="A343" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6185,7 +6185,7 @@
         </is>
       </c>
     </row>
-    <row r="344">
+    <row customHeight="1" ht="13.8" r="344" s="3">
       <c r="A344" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
     </row>
-    <row r="345">
+    <row customHeight="1" ht="13.8" r="345" s="3">
       <c r="A345" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6219,7 +6219,7 @@
         </is>
       </c>
     </row>
-    <row r="346">
+    <row customHeight="1" ht="13.8" r="346" s="3">
       <c r="A346" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6236,7 +6236,7 @@
         </is>
       </c>
     </row>
-    <row r="347">
+    <row customHeight="1" ht="13.8" r="347" s="3">
       <c r="A347" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6253,7 +6253,7 @@
         </is>
       </c>
     </row>
-    <row r="348">
+    <row customHeight="1" ht="13.8" r="348" s="3">
       <c r="A348" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6270,7 +6270,7 @@
         </is>
       </c>
     </row>
-    <row r="349">
+    <row customHeight="1" ht="13.8" r="349" s="3">
       <c r="A349" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6287,7 +6287,7 @@
         </is>
       </c>
     </row>
-    <row r="350">
+    <row customHeight="1" ht="13.8" r="350" s="3">
       <c r="A350" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6304,7 +6304,7 @@
         </is>
       </c>
     </row>
-    <row r="351">
+    <row customHeight="1" ht="13.8" r="351" s="3">
       <c r="A351" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6321,7 +6321,7 @@
         </is>
       </c>
     </row>
-    <row r="352">
+    <row customHeight="1" ht="13.8" r="352" s="3">
       <c r="A352" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6338,7 +6338,7 @@
         </is>
       </c>
     </row>
-    <row r="353">
+    <row customHeight="1" ht="13.8" r="353" s="3">
       <c r="A353" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
     </row>
-    <row r="354">
+    <row customHeight="1" ht="13.8" r="354" s="3">
       <c r="A354" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6372,7 +6372,7 @@
         </is>
       </c>
     </row>
-    <row r="355">
+    <row customHeight="1" ht="13.8" r="355" s="3">
       <c r="A355" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6389,7 +6389,7 @@
         </is>
       </c>
     </row>
-    <row r="356">
+    <row customHeight="1" ht="13.8" r="356" s="3">
       <c r="A356" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6406,7 +6406,7 @@
         </is>
       </c>
     </row>
-    <row r="357">
+    <row customHeight="1" ht="13.8" r="357" s="3">
       <c r="A357" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6423,7 +6423,7 @@
         </is>
       </c>
     </row>
-    <row r="358">
+    <row customHeight="1" ht="13.8" r="358" s="3">
       <c r="A358" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6440,7 +6440,7 @@
         </is>
       </c>
     </row>
-    <row r="359">
+    <row customHeight="1" ht="13.8" r="359" s="3">
       <c r="A359" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6457,7 +6457,7 @@
         </is>
       </c>
     </row>
-    <row r="360">
+    <row customHeight="1" ht="13.8" r="360" s="3">
       <c r="A360" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6474,7 +6474,7 @@
         </is>
       </c>
     </row>
-    <row r="361">
+    <row customHeight="1" ht="13.8" r="361" s="3">
       <c r="A361" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6491,7 +6491,7 @@
         </is>
       </c>
     </row>
-    <row r="362">
+    <row customHeight="1" ht="13.8" r="362" s="3">
       <c r="A362" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
     </row>
-    <row r="363">
+    <row customHeight="1" ht="13.8" r="363" s="3">
       <c r="A363" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
     </row>
-    <row r="364">
+    <row customHeight="1" ht="13.8" r="364" s="3">
       <c r="A364" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
     </row>
-    <row r="365">
+    <row customHeight="1" ht="13.8" r="365" s="3">
       <c r="A365" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6559,7 +6559,7 @@
         </is>
       </c>
     </row>
-    <row r="366">
+    <row customHeight="1" ht="13.8" r="366" s="3">
       <c r="A366" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
     </row>
-    <row r="367">
+    <row customHeight="1" ht="13.8" r="367" s="3">
       <c r="A367" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6593,7 +6593,7 @@
         </is>
       </c>
     </row>
-    <row r="368">
+    <row customHeight="1" ht="13.8" r="368" s="3">
       <c r="A368" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6610,7 +6610,7 @@
         </is>
       </c>
     </row>
-    <row r="369">
+    <row customHeight="1" ht="13.8" r="369" s="3">
       <c r="A369" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6627,7 +6627,7 @@
         </is>
       </c>
     </row>
-    <row r="370">
+    <row customHeight="1" ht="13.8" r="370" s="3">
       <c r="A370" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6644,7 +6644,7 @@
         </is>
       </c>
     </row>
-    <row r="371">
+    <row customHeight="1" ht="13.8" r="371" s="3">
       <c r="A371" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6661,7 +6661,7 @@
         </is>
       </c>
     </row>
-    <row r="372">
+    <row customHeight="1" ht="13.8" r="372" s="3">
       <c r="A372" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6678,7 +6678,7 @@
         </is>
       </c>
     </row>
-    <row r="373">
+    <row customHeight="1" ht="13.8" r="373" s="3">
       <c r="A373" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
     </row>
-    <row r="374">
+    <row customHeight="1" ht="13.8" r="374" s="3">
       <c r="A374" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6712,7 +6712,7 @@
         </is>
       </c>
     </row>
-    <row r="375">
+    <row customHeight="1" ht="13.8" r="375" s="3">
       <c r="A375" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6729,7 +6729,7 @@
         </is>
       </c>
     </row>
-    <row r="376">
+    <row customHeight="1" ht="13.8" r="376" s="3">
       <c r="A376" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
     </row>
-    <row r="377">
+    <row customHeight="1" ht="13.8" r="377" s="3">
       <c r="A377" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6763,7 +6763,7 @@
         </is>
       </c>
     </row>
-    <row r="378">
+    <row customHeight="1" ht="13.8" r="378" s="3">
       <c r="A378" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6780,7 +6780,7 @@
         </is>
       </c>
     </row>
-    <row r="379">
+    <row customHeight="1" ht="13.8" r="379" s="3">
       <c r="A379" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6797,7 +6797,7 @@
         </is>
       </c>
     </row>
-    <row r="380">
+    <row customHeight="1" ht="13.8" r="380" s="3">
       <c r="A380" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
     </row>
-    <row r="381">
+    <row customHeight="1" ht="13.8" r="381" s="3">
       <c r="A381" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6831,7 +6831,7 @@
         </is>
       </c>
     </row>
-    <row r="382">
+    <row customHeight="1" ht="13.8" r="382" s="3">
       <c r="A382" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -6848,154 +6848,3367 @@
         </is>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>07/08/2019</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
+    <row customHeight="1" ht="13.8" r="383" s="3">
+      <c r="A383" s="2" t="inlineStr">
+        <is>
+          <t>07/08/2019</t>
+        </is>
+      </c>
+      <c r="B383" s="2" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr">
+      <c r="C383" s="2" t="inlineStr">
         <is>
           <t>0.244</t>
         </is>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>07/08/2019</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
+    <row customHeight="1" ht="13.8" r="384" s="3">
+      <c r="A384" s="2" t="inlineStr">
+        <is>
+          <t>07/08/2019</t>
+        </is>
+      </c>
+      <c r="B384" s="2" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>07/08/2019</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
+      <c r="C384" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="385" s="3">
+      <c r="A385" s="2" t="inlineStr">
+        <is>
+          <t>07/08/2019</t>
+        </is>
+      </c>
+      <c r="B385" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="C385" t="inlineStr">
+      <c r="C385" s="2" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>07/08/2019</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
+    <row customHeight="1" ht="13.8" r="386" s="3">
+      <c r="A386" s="2" t="inlineStr">
+        <is>
+          <t>07/08/2019</t>
+        </is>
+      </c>
+      <c r="B386" s="2" t="inlineStr">
         <is>
           <t>23:00</t>
         </is>
       </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>07/08/2019</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
+      <c r="C386" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="387" s="3">
+      <c r="A387" s="2" t="inlineStr">
+        <is>
+          <t>07/08/2019</t>
+        </is>
+      </c>
+      <c r="B387" s="2" t="inlineStr">
         <is>
           <t>01:00</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>07/08/2019</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
+      <c r="C387" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="388" s="3">
+      <c r="A388" s="2" t="inlineStr">
+        <is>
+          <t>07/08/2019</t>
+        </is>
+      </c>
+      <c r="B388" s="2" t="inlineStr">
         <is>
           <t>03:00</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
+      <c r="C388" s="2" t="inlineStr">
         <is>
           <t>0.21</t>
         </is>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>07/08/2019</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
+    <row customHeight="1" ht="13.8" r="389" s="3">
+      <c r="A389" s="2" t="inlineStr">
+        <is>
+          <t>07/08/2019</t>
+        </is>
+      </c>
+      <c r="B389" s="2" t="inlineStr">
         <is>
           <t>05:00</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>07/08/2019</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
+      <c r="C389" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="390" s="3">
+      <c r="A390" s="2" t="inlineStr">
+        <is>
+          <t>07/08/2019</t>
+        </is>
+      </c>
+      <c r="B390" s="2" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr">
+      <c r="C390" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>07/08/2019</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
+    <row customHeight="1" ht="13.8" r="391" s="3">
+      <c r="A391" s="2" t="inlineStr">
+        <is>
+          <t>07/08/2019</t>
+        </is>
+      </c>
+      <c r="B391" s="2" t="inlineStr">
         <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr">
+      <c r="C391" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="392" s="3">
+      <c r="A392" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B392" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C392" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="393" s="3">
+      <c r="A393" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B393" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C393" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="394" s="3">
+      <c r="A394" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B394" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C394" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="395" s="3">
+      <c r="A395" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B395" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C395" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="396" s="3">
+      <c r="A396" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B396" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C396" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="397" s="3">
+      <c r="A397" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B397" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C397" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="398" s="3">
+      <c r="A398" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B398" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C398" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="399" s="3">
+      <c r="A399" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B399" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C399" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="400" s="3">
+      <c r="A400" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B400" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C400" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="401" s="3">
+      <c r="A401" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B401" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C401" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="402" s="3">
+      <c r="A402" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B402" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C402" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="403" s="3">
+      <c r="A403" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B403" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C403" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="404" s="3">
+      <c r="A404" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B404" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C404" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="405" s="3">
+      <c r="A405" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B405" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C405" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="406" s="3">
+      <c r="A406" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B406" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C406" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="407" s="3">
+      <c r="A407" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B407" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C407" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="408" s="3">
+      <c r="A408" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B408" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C408" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="409" s="3">
+      <c r="A409" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B409" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C409" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="410" s="3">
+      <c r="A410" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B410" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C410" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="411" s="3">
+      <c r="A411" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B411" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C411" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="412" s="3">
+      <c r="A412" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B412" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C412" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="413" s="3">
+      <c r="A413" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B413" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C413" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="414" s="3">
+      <c r="A414" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B414" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C414" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="415" s="3">
+      <c r="A415" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B415" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C415" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="416" s="3">
+      <c r="A416" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B416" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C416" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="417" s="3">
+      <c r="A417" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B417" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C417" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="418" s="3">
+      <c r="A418" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B418" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C418" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="419" s="3">
+      <c r="A419" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B419" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C419" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="420" s="3">
+      <c r="A420" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B420" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C420" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="421" s="3">
+      <c r="A421" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B421" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C421" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="422" s="3">
+      <c r="A422" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B422" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C422" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="423" s="3">
+      <c r="A423" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B423" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C423" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="424" s="3">
+      <c r="A424" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B424" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C424" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="425" s="3">
+      <c r="A425" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B425" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C425" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="426" s="3">
+      <c r="A426" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B426" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C426" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="427" s="3">
+      <c r="A427" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B427" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C427" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="428" s="3">
+      <c r="A428" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B428" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C428" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="429" s="3">
+      <c r="A429" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B429" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C429" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="430" s="3">
+      <c r="A430" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B430" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C430" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="431" s="3">
+      <c r="A431" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B431" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C431" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="432" s="3">
+      <c r="A432" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B432" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C432" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="433" s="3">
+      <c r="A433" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B433" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C433" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="434" s="3">
+      <c r="A434" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B434" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C434" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="435" s="3">
+      <c r="A435" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B435" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C435" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="436" s="3">
+      <c r="A436" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B436" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C436" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="437" s="3">
+      <c r="A437" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B437" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C437" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="438" s="3">
+      <c r="A438" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B438" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C438" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="439" s="3">
+      <c r="A439" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B439" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C439" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="440" s="3">
+      <c r="A440" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B440" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C440" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="441" s="3">
+      <c r="A441" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B441" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C441" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="442" s="3">
+      <c r="A442" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B442" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C442" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="443" s="3">
+      <c r="A443" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B443" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C443" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="444" s="3">
+      <c r="A444" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B444" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C444" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="445" s="3">
+      <c r="A445" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B445" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C445" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="446" s="3">
+      <c r="A446" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B446" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C446" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="447" s="3">
+      <c r="A447" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B447" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C447" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="448" s="3">
+      <c r="A448" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B448" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C448" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="449" s="3">
+      <c r="A449" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B449" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C449" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="450" s="3">
+      <c r="A450" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B450" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C450" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="451" s="3">
+      <c r="A451" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B451" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C451" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="452" s="3">
+      <c r="A452" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B452" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C452" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="453" s="3">
+      <c r="A453" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B453" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C453" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="454" s="3">
+      <c r="A454" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B454" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C454" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="455" s="3">
+      <c r="A455" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B455" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C455" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="456" s="3">
+      <c r="A456" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B456" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C456" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="457" s="3">
+      <c r="A457" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B457" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C457" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="458" s="3">
+      <c r="A458" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B458" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C458" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="459" s="3">
+      <c r="A459" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B459" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C459" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="460" s="3">
+      <c r="A460" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B460" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C460" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="461" s="3">
+      <c r="A461" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B461" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C461" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="462" s="3">
+      <c r="A462" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B462" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C462" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="463" s="3">
+      <c r="A463" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B463" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C463" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="464" s="3">
+      <c r="A464" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B464" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C464" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="465" s="3">
+      <c r="A465" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B465" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C465" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="466" s="3">
+      <c r="A466" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B466" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C466" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="467" s="3">
+      <c r="A467" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B467" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C467" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="468" s="3">
+      <c r="A468" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B468" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C468" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="469" s="3">
+      <c r="A469" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B469" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C469" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="470" s="3">
+      <c r="A470" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B470" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C470" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="471" s="3">
+      <c r="A471" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B471" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C471" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="472" s="3">
+      <c r="A472" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B472" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C472" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B473" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C473" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B474" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C474" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B475" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C475" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B476" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C476" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B477" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C477" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B478" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C478" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B479" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C479" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B480" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C480" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B481" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C481" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B482" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C482" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B483" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C483" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B484" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C484" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B485" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C485" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B486" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C486" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B487" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C487" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B488" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C488" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B489" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C489" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B490" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C490" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B491" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C491" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B492" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C492" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B493" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C493" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B494" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C494" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B495" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C495" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B496" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C496" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B497" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C497" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B498" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C498" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B499" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C499" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B500" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C500" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B501" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C501" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B502" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C502" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B503" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C503" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B504" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C504" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B505" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C505" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B506" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C506" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B507" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C507" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B508" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C508" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B509" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C509" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B510" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C510" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B511" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C511" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B512" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C512" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B513" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C513" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B514" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C514" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B515" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C515" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B516" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C516" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B517" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C517" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B518" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C518" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B519" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C519" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B520" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C520" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B521" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C521" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B522" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C522" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B523" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C523" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B524" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C524" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B525" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C525" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B526" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C526" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B527" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C527" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B528" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C528" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B529" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C529" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B530" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C530" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B531" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C531" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B532" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C532" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B533" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C533" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B534" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C534" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B535" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C535" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B536" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C536" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B537" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C537" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B538" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C538" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B539" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C539" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B540" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C540" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B541" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C541" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B542" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C542" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B543" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C543" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B544" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C544" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B545" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C545" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B546" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C546" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B547" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C547" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B548" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C548" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B549" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C549" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B550" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C550" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B551" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C551" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B552" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C552" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B553" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C553" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B554" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C554" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B555" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C555" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B556" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C556" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B557" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C557" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B558" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C558" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B559" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C559" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B560" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C560" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B561" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C561" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B562" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C562" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B563" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C563" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B564" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C564" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B565" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C565" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B566" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C566" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B567" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C567" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B568" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C568" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B569" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C569" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B570" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C570" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B571" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C571" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B572" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C572" s="2" t="inlineStr">
+        <is>
+          <t>0.244</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B573" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C573" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B574" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C574" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B575" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C575" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B576" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C576" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B577" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C577" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B578" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C578" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B579" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C579" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B580" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C580" s="2" t="inlineStr">
         <is>
           <t>1.5</t>
         </is>
@@ -7014,15 +10227,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A151" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A155" activeCellId="0" pane="topLeft" sqref="A155"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A170" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B170" activeCellId="0" pane="topLeft" sqref="B:B"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="2" width="9.140000000000001"/>
+    <col customWidth="1" max="1" min="1" style="2" width="16.75"/>
+    <col customWidth="1" max="1025" min="2" style="2" width="9.140000000000001"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="3">
@@ -7038,7 +10252,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>TPS</t>
+          <t>PeakTPS</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
@@ -9618,7 +12832,7 @@
         </is>
       </c>
     </row>
-    <row r="155">
+    <row customHeight="1" ht="13.8" r="155" s="3">
       <c r="A155" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9635,7 +12849,7 @@
         </is>
       </c>
     </row>
-    <row r="156">
+    <row customHeight="1" ht="13.8" r="156" s="3">
       <c r="A156" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9652,7 +12866,7 @@
         </is>
       </c>
     </row>
-    <row r="157">
+    <row customHeight="1" ht="13.8" r="157" s="3">
       <c r="A157" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9669,7 +12883,7 @@
         </is>
       </c>
     </row>
-    <row r="158">
+    <row customHeight="1" ht="13.8" r="158" s="3">
       <c r="A158" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9686,7 +12900,7 @@
         </is>
       </c>
     </row>
-    <row r="159">
+    <row customHeight="1" ht="13.8" r="159" s="3">
       <c r="A159" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9703,7 +12917,7 @@
         </is>
       </c>
     </row>
-    <row r="160">
+    <row customHeight="1" ht="13.8" r="160" s="3">
       <c r="A160" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9720,7 +12934,7 @@
         </is>
       </c>
     </row>
-    <row r="161">
+    <row customHeight="1" ht="13.8" r="161" s="3">
       <c r="A161" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9737,7 +12951,7 @@
         </is>
       </c>
     </row>
-    <row r="162">
+    <row customHeight="1" ht="13.8" r="162" s="3">
       <c r="A162" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9754,7 +12968,7 @@
         </is>
       </c>
     </row>
-    <row r="163">
+    <row customHeight="1" ht="13.8" r="163" s="3">
       <c r="A163" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9771,7 +12985,7 @@
         </is>
       </c>
     </row>
-    <row r="164">
+    <row customHeight="1" ht="13.8" r="164" s="3">
       <c r="A164" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9788,7 +13002,7 @@
         </is>
       </c>
     </row>
-    <row r="165">
+    <row customHeight="1" ht="13.8" r="165" s="3">
       <c r="A165" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9805,7 +13019,7 @@
         </is>
       </c>
     </row>
-    <row r="166">
+    <row customHeight="1" ht="13.8" r="166" s="3">
       <c r="A166" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9822,7 +13036,7 @@
         </is>
       </c>
     </row>
-    <row r="167">
+    <row customHeight="1" ht="13.8" r="167" s="3">
       <c r="A167" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9839,7 +13053,7 @@
         </is>
       </c>
     </row>
-    <row r="168">
+    <row customHeight="1" ht="13.8" r="168" s="3">
       <c r="A168" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9856,7 +13070,7 @@
         </is>
       </c>
     </row>
-    <row r="169">
+    <row customHeight="1" ht="13.8" r="169" s="3">
       <c r="A169" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9873,7 +13087,7 @@
         </is>
       </c>
     </row>
-    <row r="170">
+    <row customHeight="1" ht="13.8" r="170" s="3">
       <c r="A170" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9890,7 +13104,7 @@
         </is>
       </c>
     </row>
-    <row r="171">
+    <row customHeight="1" ht="13.8" r="171" s="3">
       <c r="A171" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9907,7 +13121,7 @@
         </is>
       </c>
     </row>
-    <row r="172">
+    <row customHeight="1" ht="13.8" r="172" s="3">
       <c r="A172" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9924,7 +13138,7 @@
         </is>
       </c>
     </row>
-    <row r="173">
+    <row customHeight="1" ht="13.8" r="173" s="3">
       <c r="A173" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9941,7 +13155,7 @@
         </is>
       </c>
     </row>
-    <row r="174">
+    <row customHeight="1" ht="13.8" r="174" s="3">
       <c r="A174" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9958,7 +13172,7 @@
         </is>
       </c>
     </row>
-    <row r="175">
+    <row customHeight="1" ht="13.8" r="175" s="3">
       <c r="A175" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9975,7 +13189,7 @@
         </is>
       </c>
     </row>
-    <row r="176">
+    <row customHeight="1" ht="13.8" r="176" s="3">
       <c r="A176" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -9992,7 +13206,7 @@
         </is>
       </c>
     </row>
-    <row r="177">
+    <row customHeight="1" ht="13.8" r="177" s="3">
       <c r="A177" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -10009,7 +13223,7 @@
         </is>
       </c>
     </row>
-    <row r="178">
+    <row customHeight="1" ht="13.8" r="178" s="3">
       <c r="A178" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -10026,7 +13240,7 @@
         </is>
       </c>
     </row>
-    <row r="179">
+    <row customHeight="1" ht="13.8" r="179" s="3">
       <c r="A179" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -10043,7 +13257,7 @@
         </is>
       </c>
     </row>
-    <row r="180">
+    <row customHeight="1" ht="13.8" r="180" s="3">
       <c r="A180" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -10060,7 +13274,7 @@
         </is>
       </c>
     </row>
-    <row r="181">
+    <row customHeight="1" ht="13.8" r="181" s="3">
       <c r="A181" s="2" t="inlineStr">
         <is>
           <t>07/08/2019</t>
@@ -10072,6 +13286,924 @@
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="182" s="3">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="183" s="3">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="184" s="3">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="185" s="3">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="186" s="3">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="187" s="3">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="188" s="3">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="189" s="3">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="190" s="3">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>07/10/2019</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
         <is>
           <t>50</t>
         </is>
